--- a/testxl.xlsx
+++ b/testxl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHUBHRADEEP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{F322D6E0-4A52-479C-BD2E-3A30C83E8BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2540DD4-2629-407E-AFCD-F71DD6928BE8}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F322D6E0-4A52-479C-BD2E-3A30C83E8BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{639BBF03-5BBD-4668-8603-4EFBB4DA7195}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="11">
   <si>
     <t xml:space="preserve">Assets to be copied </t>
   </si>
@@ -57,7 +57,10 @@
     <t>C:\Users\real\Downloads\example4.txt</t>
   </si>
   <si>
-    <t>C:\Users\real\Downloads\example2.tx</t>
+    <t>C:\Users\real\Downloads\example2.txt</t>
+  </si>
+  <si>
+    <t>C:\tempo\tempo.txt</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89.45703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -455,10 +458,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
